--- a/20春_Web数据挖掘_week02_liepin.xlsx
+++ b/20春_Web数据挖掘_week02_liepin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="61">
   <si>
     <t>公司URL</t>
   </si>
@@ -37,12 +37,12 @@
     <t>&lt;Element 'a' class=('ellipsis-1', 'company-name') href='https://m.liepin.com/company/8781325/' onclick='return false;'&gt;</t>
   </si>
   <si>
+    <t>&lt;Element 'a' class=('ellipsis-1', 'company-name') href='https://m.liepin.com/company/8019361/' onclick='return false;'&gt;</t>
+  </si>
+  <si>
     <t>&lt;Element 'a' class=('ellipsis-1', 'company-name') href='https://m.liepin.com/company/8796604/' onclick='return false;'&gt;</t>
   </si>
   <si>
-    <t>&lt;Element 'a' class=('ellipsis-1', 'company-name') href='https://m.liepin.com/company/8019361/' onclick='return false;'&gt;</t>
-  </si>
-  <si>
     <t>&lt;Element 'a' class=('ellipsis-1', 'company-name') href='https://m.liepin.com/company/7895800/' onclick='return false;'&gt;</t>
   </si>
   <si>
@@ -55,21 +55,24 @@
     <t>&lt;Element 'a' class=('ellipsis-1', 'company-name') href='https://m.liepin.com/company/10283773/' onclick='return false;'&gt;</t>
   </si>
   <si>
-    <t>6小时前</t>
+    <t>昨天</t>
   </si>
   <si>
     <t>一个月前</t>
   </si>
   <si>
+    <t>16小时前</t>
+  </si>
+  <si>
+    <t>2020-03-26</t>
+  </si>
+  <si>
+    <t>2020-03-24</t>
+  </si>
+  <si>
     <t>前天</t>
   </si>
   <si>
-    <t>2020-03-24</t>
-  </si>
-  <si>
-    <t>昨天</t>
-  </si>
-  <si>
     <t>2020-03-22</t>
   </si>
   <si>
@@ -103,12 +106,6 @@
     <t>2020-03-01</t>
   </si>
   <si>
-    <t>7小时前</t>
-  </si>
-  <si>
-    <t>15小时前</t>
-  </si>
-  <si>
     <t>2020-03-23</t>
   </si>
   <si>
@@ -140,12 +137,12 @@
   </si>
   <si>
     <t xml:space="preserve">
+                                                        7年以上 本科及以上
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
                                                         经验不限 学历不限
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        7年以上 本科及以上
                                                 </t>
   </si>
   <si>
@@ -637,7 +634,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -651,7 +648,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -665,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -679,7 +676,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -693,7 +690,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -704,10 +701,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -718,10 +715,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -732,10 +729,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -746,10 +743,10 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -760,10 +757,10 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -774,10 +771,10 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -788,10 +785,10 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -802,10 +799,10 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -816,10 +813,10 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -830,10 +827,10 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -844,10 +841,10 @@
         <v>10</v>
       </c>
       <c r="C17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -858,10 +855,10 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -872,10 +869,10 @@
         <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -886,10 +883,10 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -900,10 +897,10 @@
         <v>10</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -914,10 +911,10 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -928,10 +925,10 @@
         <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -942,10 +939,10 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -956,10 +953,10 @@
         <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -970,10 +967,10 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -987,7 +984,7 @@
         <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1001,7 +998,7 @@
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1015,7 +1012,7 @@
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1029,7 +1026,7 @@
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1043,7 +1040,7 @@
         <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -1057,7 +1054,7 @@
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1071,7 +1068,7 @@
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1085,7 +1082,7 @@
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1096,10 +1093,10 @@
         <v>10</v>
       </c>
       <c r="C35" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1110,10 +1107,10 @@
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1124,10 +1121,10 @@
         <v>10</v>
       </c>
       <c r="C37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1138,10 +1135,10 @@
         <v>10</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1152,10 +1149,10 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1166,10 +1163,10 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1180,10 +1177,10 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1194,10 +1191,10 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1208,10 +1205,10 @@
         <v>10</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1222,10 +1219,10 @@
         <v>10</v>
       </c>
       <c r="C44" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1236,10 +1233,10 @@
         <v>10</v>
       </c>
       <c r="C45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1250,10 +1247,10 @@
         <v>10</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1264,10 +1261,10 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1278,10 +1275,10 @@
         <v>10</v>
       </c>
       <c r="C48" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1292,10 +1289,10 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1306,10 +1303,10 @@
         <v>10</v>
       </c>
       <c r="C50" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1320,10 +1317,10 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1334,10 +1331,10 @@
         <v>10</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D52" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1348,10 +1345,10 @@
         <v>10</v>
       </c>
       <c r="C53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1362,10 +1359,10 @@
         <v>10</v>
       </c>
       <c r="C54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1376,10 +1373,10 @@
         <v>10</v>
       </c>
       <c r="C55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1390,10 +1387,10 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1404,10 +1401,10 @@
         <v>10</v>
       </c>
       <c r="C57" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1418,10 +1415,10 @@
         <v>10</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1432,10 +1429,10 @@
         <v>10</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1446,10 +1443,10 @@
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1460,10 +1457,10 @@
         <v>10</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/20春_Web数据挖掘_week02_liepin.xlsx
+++ b/20春_Web数据挖掘_week02_liepin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="62">
   <si>
     <t>公司URL</t>
   </si>
@@ -37,31 +37,49 @@
     <t>&lt;Element 'a' class=('ellipsis-1', 'company-name') href='https://m.liepin.com/company/8781325/' onclick='return false;'&gt;</t>
   </si>
   <si>
+    <t>&lt;Element 'a' class=('ellipsis-1', 'company-name') href='https://m.liepin.com/company/2471659/' onclick='return false;'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Element 'a' class=('ellipsis-1', 'company-name') href='https://m.liepin.com/company/9287281/' onclick='return false;'&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Element 'a' class=('ellipsis-1', 'company-name')&gt;</t>
+  </si>
+  <si>
+    <t>&lt;Element 'a' class=('ellipsis-1', 'company-name') href='https://m.liepin.com/company/7895800/' onclick='return false;'&gt;</t>
+  </si>
+  <si>
     <t>&lt;Element 'a' class=('ellipsis-1', 'company-name') href='https://m.liepin.com/company/8019361/' onclick='return false;'&gt;</t>
   </si>
   <si>
     <t>&lt;Element 'a' class=('ellipsis-1', 'company-name') href='https://m.liepin.com/company/8796604/' onclick='return false;'&gt;</t>
   </si>
   <si>
-    <t>&lt;Element 'a' class=('ellipsis-1', 'company-name') href='https://m.liepin.com/company/7895800/' onclick='return false;'&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Element 'a' class=('ellipsis-1', 'company-name')&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Element 'a' class=('ellipsis-1', 'company-name') href='https://m.liepin.com/company/9287281/' onclick='return false;'&gt;</t>
-  </si>
-  <si>
-    <t>&lt;Element 'a' class=('ellipsis-1', 'company-name') href='https://m.liepin.com/company/10283773/' onclick='return false;'&gt;</t>
+    <t>6小时前</t>
+  </si>
+  <si>
+    <t>一个月前</t>
+  </si>
+  <si>
+    <t>10小时前</t>
   </si>
   <si>
     <t>昨天</t>
   </si>
   <si>
-    <t>一个月前</t>
-  </si>
-  <si>
-    <t>16小时前</t>
+    <t>13小时前</t>
+  </si>
+  <si>
+    <t>前天</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>2020-03-29</t>
+  </si>
+  <si>
+    <t>2020-03-27</t>
   </si>
   <si>
     <t>2020-03-26</t>
@@ -70,57 +88,48 @@
     <t>2020-03-24</t>
   </si>
   <si>
-    <t>前天</t>
-  </si>
-  <si>
     <t>2020-03-22</t>
   </si>
   <si>
     <t>2020-03-20</t>
   </si>
   <si>
+    <t>2020-03-13</t>
+  </si>
+  <si>
+    <t>2020-03-12</t>
+  </si>
+  <si>
+    <t>2020-03-10</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>2020-03-05</t>
+  </si>
+  <si>
+    <t>14小时前</t>
+  </si>
+  <si>
+    <t>15小时前</t>
+  </si>
+  <si>
+    <t>5小时前</t>
+  </si>
+  <si>
+    <t>2020-03-28</t>
+  </si>
+  <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
     <t>2020-03-18</t>
   </si>
   <si>
-    <t>2020-03-13</t>
-  </si>
-  <si>
-    <t>2020-03-12</t>
-  </si>
-  <si>
-    <t>2020-03-10</t>
-  </si>
-  <si>
-    <t>2020-03-06</t>
-  </si>
-  <si>
-    <t>2020-03-05</t>
-  </si>
-  <si>
-    <t>2020-03-03</t>
-  </si>
-  <si>
-    <t>2020-03-02</t>
-  </si>
-  <si>
-    <t>2020-03-01</t>
-  </si>
-  <si>
-    <t>2020-03-23</t>
-  </si>
-  <si>
     <t>2020-03-17</t>
   </si>
   <si>
-    <t>2020-03-16</t>
-  </si>
-  <si>
-    <t>2020-03-11</t>
-  </si>
-  <si>
-    <t>2020-03-09</t>
-  </si>
-  <si>
     <t xml:space="preserve">
                                                         2年以上 大专及以上
                                                 </t>
@@ -137,6 +146,96 @@
   </si>
   <si>
     <t xml:space="preserve">
+                                                        5年以上 本科及以上
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        经验不限 本科及以上
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        3年以上 本科及以上
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        1年以上 统招本科
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        2年以上 学历不限
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        2年以上 大专及以上
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        2年以上 统招本科
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        1年以上 学历不限
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        3年以上 学历不限
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        5年以上 大专及以上
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        1年以上 学历不限
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        1年以上 大专及以上
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        3年以上 学历不限
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        2年以上 本科及以上
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        4年以上 学历不限
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        5年以上 学历不限
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        3年以上 大专及以上
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+                                                        1年以上 大专及以上
+                                                </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
                                                         7年以上 本科及以上
                                                 </t>
   </si>
@@ -147,107 +246,7 @@
   </si>
   <si>
     <t xml:space="preserve">
-                                                        1年以上 大专及以上
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        1年以上 学历不限
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        1年以上 统招本科
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        3年以上 学历不限
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        5年以上 大专及以上
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        1年以上 学历不限
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        1年以上 大专及以上
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        2年以上 大专及以上
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        3年以上 本科及以上
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        3年以上 学历不限
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        2年以上 学历不限
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        2年以上 本科及以上
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        2年以上 统招本科
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        4年以上 学历不限
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        经验不限 本科及以上
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        3年以上 大专及以上
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        5年以上 学历不限
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
                                                         4年以上 本科及以上
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        4年以上 本科及以上
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        2年以上 本科及以上
-                                                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-                                                        5年以上 本科及以上
                                                 </t>
   </si>
 </sst>
@@ -634,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -648,7 +647,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -662,7 +661,7 @@
         <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -676,7 +675,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -690,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -704,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -712,13 +711,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -726,13 +725,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -740,13 +739,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -754,13 +753,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -768,13 +767,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -782,13 +781,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -796,13 +795,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -810,13 +809,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -824,13 +823,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -838,13 +837,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -852,13 +851,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -866,13 +865,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -880,13 +879,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>24</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -894,13 +893,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -908,13 +907,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -922,13 +921,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -936,13 +935,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -950,13 +949,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -964,7 +963,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
         <v>29</v>
@@ -978,13 +977,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D27" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -992,13 +991,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1006,13 +1005,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1020,13 +1019,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -1034,7 +1033,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
@@ -1048,13 +1047,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
         <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1062,13 +1061,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
         <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1076,13 +1075,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
         <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -1090,13 +1089,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1104,13 +1103,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1118,13 +1117,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1132,13 +1131,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1146,13 +1145,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -1160,13 +1159,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -1174,13 +1173,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -1188,13 +1187,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -1202,13 +1201,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1216,13 +1215,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D44" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1230,13 +1229,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1244,13 +1243,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1258,13 +1257,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -1272,13 +1271,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -1289,10 +1288,10 @@
         <v>10</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -1300,13 +1299,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -1314,13 +1313,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D51" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -1328,13 +1327,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D52" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1342,13 +1341,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="D53" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1356,13 +1355,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D54" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -1370,13 +1369,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -1384,13 +1383,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D56" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -1398,13 +1397,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -1412,13 +1411,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -1426,13 +1425,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -1440,13 +1439,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -1454,13 +1453,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="D61" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
